--- a/Design/DataTable/Stage.xlsx
+++ b/Design/DataTable/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C2CC76-AD5E-42DB-853F-E00A9BFD17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD82579-A1F7-4430-9F18-41A75842ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 스테이지 최초 보상과 이후 보상을 구분
+1 : 최초 보상
+2 : 이후 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,7 +861,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,13 +1107,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65939-9C01-46E8-9ACE-B15503096FB8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,19 +1135,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
